--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -460,6 +460,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
